--- a/ZPD_Latvija_Arpus_Civilizacijas_Kopsavilkums_Excel.xlsx
+++ b/ZPD_Latvija_Arpus_Civilizacijas_Kopsavilkums_Excel.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katri\Desktop\Maija ZPD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maija Anna Ramāna\Documents\Maija_un_Linda_ZPD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0367669-0A73-4B30-91D1-C97D48B899CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D91BFC-7FCA-4AB8-923B-9DAC3B0CEAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="91">
   <si>
     <t>GPS N</t>
   </si>
@@ -28,40 +41,345 @@
     <t>GPS E</t>
   </si>
   <si>
-    <t>Bx</t>
-  </si>
-  <si>
-    <t>By</t>
-  </si>
-  <si>
-    <t>Bz</t>
-  </si>
-  <si>
-    <t>B (total) (nT)</t>
-  </si>
-  <si>
-    <t>B total t</t>
+    <t>Model Used:</t>
+  </si>
+  <si>
+    <t>WMM-2020</t>
+  </si>
+  <si>
+    <t>Latitude:</t>
+  </si>
+  <si>
+    <t>57.8654292° N</t>
+  </si>
+  <si>
+    <t>Longitude:</t>
+  </si>
+  <si>
+    <t>Elevation:</t>
+  </si>
+  <si>
+    <t>0.0 km Mean Sea Level</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Declination</t>
+  </si>
+  <si>
+    <t>( + E  | - W )</t>
+  </si>
+  <si>
+    <t>Inclination</t>
+  </si>
+  <si>
+    <t>( + D  | - U )</t>
+  </si>
+  <si>
+    <t>Horizontal Intensity</t>
+  </si>
+  <si>
+    <t>North Comp</t>
+  </si>
+  <si>
+    <t>(+ N  | - S)</t>
+  </si>
+  <si>
+    <t>East Comp</t>
+  </si>
+  <si>
+    <t>(+ E  | - W)</t>
+  </si>
+  <si>
+    <t>Vertical Comp</t>
+  </si>
+  <si>
+    <t>(+ D  | - U)</t>
+  </si>
+  <si>
+    <t>Total Field</t>
+  </si>
+  <si>
+    <t>Change/year</t>
+  </si>
+  <si>
+    <t>Uncertainty</t>
+  </si>
+  <si>
+    <t>0.21°</t>
+  </si>
+  <si>
+    <t>128 nT</t>
+  </si>
+  <si>
+    <t>131 nT</t>
+  </si>
+  <si>
+    <t>94 nT</t>
+  </si>
+  <si>
+    <t>157 nT</t>
+  </si>
+  <si>
+    <t>145 nT</t>
+  </si>
+  <si>
+    <t>24.3568591° E</t>
+  </si>
+  <si>
+    <t>8.4387°</t>
+  </si>
+  <si>
+    <t>72.1273°</t>
+  </si>
+  <si>
+    <t>15,871.6 nT</t>
+  </si>
+  <si>
+    <t>15,699.8 nT</t>
+  </si>
+  <si>
+    <t>2,329.2 nT</t>
+  </si>
+  <si>
+    <t>49,219.7 nT</t>
+  </si>
+  <si>
+    <t>51,715.5 nT</t>
+  </si>
+  <si>
+    <t>8.6194°</t>
+  </si>
+  <si>
+    <t>72.1597°</t>
+  </si>
+  <si>
+    <t>15,862.0 nT</t>
+  </si>
+  <si>
+    <t>15,682.8 nT</t>
+  </si>
+  <si>
+    <t>2,377.2 nT</t>
+  </si>
+  <si>
+    <t>49,285.1 nT</t>
+  </si>
+  <si>
+    <t>51,774.8 nT</t>
+  </si>
+  <si>
+    <t>8.8004°</t>
+  </si>
+  <si>
+    <t>72.1919°</t>
+  </si>
+  <si>
+    <t>15,852.4 nT</t>
+  </si>
+  <si>
+    <t>15,665.8 nT</t>
+  </si>
+  <si>
+    <t>2,425.3 nT</t>
+  </si>
+  <si>
+    <t>49,350.6 nT</t>
+  </si>
+  <si>
+    <t>51,834.1 nT</t>
+  </si>
+  <si>
+    <t>8.9816°</t>
+  </si>
+  <si>
+    <t>72.2238°</t>
+  </si>
+  <si>
+    <t>15,843.1 nT</t>
+  </si>
+  <si>
+    <t>15,648.8 nT</t>
+  </si>
+  <si>
+    <t>2,473.4 nT</t>
+  </si>
+  <si>
+    <t>49,416.0 nT</t>
+  </si>
+  <si>
+    <t>51,893.5 nT</t>
+  </si>
+  <si>
+    <t>9.1630°</t>
+  </si>
+  <si>
+    <t>72.2555°</t>
+  </si>
+  <si>
+    <t>15,833.9 nT</t>
+  </si>
+  <si>
+    <t>15,631.8 nT</t>
+  </si>
+  <si>
+    <t>2,521.4 nT</t>
+  </si>
+  <si>
+    <t>49,481.4 nT</t>
+  </si>
+  <si>
+    <t>51,953.0 nT</t>
+  </si>
+  <si>
+    <t>9.3446°</t>
+  </si>
+  <si>
+    <t>72.2869°</t>
+  </si>
+  <si>
+    <t>15,824.9 nT</t>
+  </si>
+  <si>
+    <t>15,614.9 nT</t>
+  </si>
+  <si>
+    <t>2,569.5 nT</t>
+  </si>
+  <si>
+    <t>49,546.8 nT</t>
+  </si>
+  <si>
+    <t>52,012.6 nT</t>
+  </si>
+  <si>
+    <t>0.1817°/yr</t>
+  </si>
+  <si>
+    <t>0.0313°/yr</t>
+  </si>
+  <si>
+    <t>-9.0 nT/yr</t>
+  </si>
+  <si>
+    <t>-17.0 nT/yr</t>
+  </si>
+  <si>
+    <t>48.1 nT/yr</t>
+  </si>
+  <si>
+    <t>65.4 nT/yr</t>
+  </si>
+  <si>
+    <t>59.6 nT/yr</t>
+  </si>
+  <si>
+    <t>0.44°</t>
+  </si>
+  <si>
+    <t>B (total) teor (nT) 1</t>
+  </si>
+  <si>
+    <t>B (total) teor (nT) 2</t>
+  </si>
+  <si>
+    <t>Pieņemtā apmplitūda (m/vjl)</t>
+  </si>
+  <si>
+    <t>22.07.2024.</t>
+  </si>
+  <si>
+    <t>23.07.2024.</t>
+  </si>
+  <si>
+    <t>Bx (AVG)</t>
+  </si>
+  <si>
+    <t>By (AVG)</t>
+  </si>
+  <si>
+    <t>Bz (AVG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B (total) eksp. (nT) </t>
+  </si>
+  <si>
+    <t>Eksp. mērījumu veikšanas dat.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF666666"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F8FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9E5A8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC3D9FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAEBD7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -69,12 +387,208 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -127,11 +641,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="lv-LV"/>
-              <a:t>GPS</a:t>
+              <a:t>B</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="lv-LV" baseline="0"/>
-              <a:t> N pret B kopējo (izvēles dati)</a:t>
+              <a:t> (total) pret GPS N</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -175,6 +689,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>B (total) eksperimentālais</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="38100" cap="rnd">
               <a:noFill/>
@@ -213,50 +730,38 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Results!$A$2:$A$15</c:f>
+              <c:f>Results!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>57.865429200000001</c:v>
+                  <c:v>57.862904200000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57.862904200000003</c:v>
+                  <c:v>57.1404633</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57.1404633</c:v>
+                  <c:v>57.706349600000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57.705918099999998</c:v>
+                  <c:v>57.613046099999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57.706349600000003</c:v>
+                  <c:v>57.465741399999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.613554100000002</c:v>
+                  <c:v>57.404880900000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57.613046099999998</c:v>
+                  <c:v>57.3344959</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>57.613046099999998</c:v>
+                  <c:v>57.287456599999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>57.465741399999999</c:v>
+                  <c:v>57.223489499999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>57.404880900000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>57.3344959</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>57.287456599999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>57.223489499999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>57.184800899999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -264,50 +769,38 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Results!$C$2:$C$15</c:f>
+              <c:f>Results!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>55236.369870000002</c:v>
+                  <c:v>54814.980689999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54814.980689999997</c:v>
+                  <c:v>53311.06237</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53311.06237</c:v>
+                  <c:v>54739.182419999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53330.277260000003</c:v>
+                  <c:v>53959.366909999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54739.182419999997</c:v>
+                  <c:v>54311.215179999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53447.678249999997</c:v>
+                  <c:v>53686.451399999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>54797.213340000002</c:v>
+                  <c:v>53675.088889999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>53959.366909999997</c:v>
+                  <c:v>53491.282509999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>54311.215179999999</c:v>
+                  <c:v>53488.626629999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>53686.451399999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>53675.088889999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>53491.282509999997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>53488.626629999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>52776.948049999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -316,7 +809,247 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-89B6-4476-9BA2-05AAFC0BE984}"/>
+              <c16:uniqueId val="{00000000-5D2B-4444-9575-4E86637FBD1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>B (total) teorētiksias 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Results!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>57.862904200000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.1404633</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.706349600000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.613046099999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57.465741399999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.404880900000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57.3344959</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57.287456599999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57.223489499999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57.184800899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Results!$I$2:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>51998.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51845.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51969.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51950.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51924.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51912.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51900.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51888.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51872.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51858.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5D2B-4444-9575-4E86637FBD1B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>B (total) teorētiskais 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Results!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>57.862904200000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.1404633</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.706349600000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.613046099999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57.465741399999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.404880900000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57.3344959</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57.287456599999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57.223489499999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57.184800899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Results!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>52011.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51858.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51981.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51963.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51937.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51925</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51912.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51900.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51885</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51871.199999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5D2B-4444-9575-4E86637FBD1B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -328,11 +1061,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="579314976"/>
-        <c:axId val="579310296"/>
+        <c:axId val="1355429488"/>
+        <c:axId val="1765416080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="579314976"/>
+        <c:axId val="1355429488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -352,8 +1085,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="lv-LV"/>
+                  <a:t>GPS</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="lv-LV" baseline="0"/>
+                  <a:t> N (°)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -389,16 +1182,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="579310296"/>
+        <c:crossAx val="1765416080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="579310296"/>
+        <c:axId val="1765416080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="56020"/>
-          <c:min val="51520"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -416,8 +1207,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="lv-LV"/>
+                  <a:t>B</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="lv-LV" baseline="0"/>
+                  <a:t> (Total) (nT)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -453,7 +1304,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="579314976"/>
+        <c:crossAx val="1355429488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -465,6 +1316,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -524,6 +1406,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="lv-LV"/>
+              <a:t>B</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="lv-LV" baseline="0"/>
+              <a:t> (total) pret GPS E</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -562,6 +1474,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>B (total) eksperimentālais</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="38100" cap="rnd">
               <a:noFill/>
@@ -598,330 +1513,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Results!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>57.865429200000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>57.862904200000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>57.1404633</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>57.705918099999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>57.706349600000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>57.613554100000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Results!$J$2:$J$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>51999.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>51998.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>51845.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>51968.800000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>51969.1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>51951.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D4A5-4ECD-9682-F3A2BE9EB73B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="579322536"/>
-        <c:axId val="343175704"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="579322536"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="343175704"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="343175704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="56020"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="579322536"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
@@ -938,54 +1529,78 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Results!$A$2:$A$7</c:f>
+              <c:f>Results!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>57.865429200000001</c:v>
+                  <c:v>24.352066300000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57.862904200000003</c:v>
+                  <c:v>24.290671199999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57.1404633</c:v>
+                  <c:v>24.375397499999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57.705918099999998</c:v>
+                  <c:v>24.3862953</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57.706349600000003</c:v>
+                  <c:v>24.431335000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.613554100000002</c:v>
+                  <c:v>24.433516300000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.4600957</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.430827099999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.401625500000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.334432799999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Results!$C$2:$C$7</c:f>
+              <c:f>Results!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>55236.369870000002</c:v>
+                  <c:v>54814.980689999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54814.980689999997</c:v>
+                  <c:v>53311.06237</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53311.06237</c:v>
+                  <c:v>54739.182419999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53330.277260000003</c:v>
+                  <c:v>53959.366909999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54739.182419999997</c:v>
+                  <c:v>54311.215179999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53447.678249999997</c:v>
+                  <c:v>53686.451399999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53675.088889999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53491.282509999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53488.626629999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52776.948049999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -993,13 +1608,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A034-4073-8943-B915FA8021CC}"/>
+              <c16:uniqueId val="{00000000-C5F2-422E-A83D-0EFFB837E86F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>B (total) teorētiskais 1</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="38100" cap="rnd">
               <a:noFill/>
@@ -1038,54 +1656,78 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Results!$A$2:$A$7</c:f>
+              <c:f>Results!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>57.865429200000001</c:v>
+                  <c:v>24.352066300000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57.862904200000003</c:v>
+                  <c:v>24.290671199999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57.1404633</c:v>
+                  <c:v>24.375397499999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57.705918099999998</c:v>
+                  <c:v>24.3862953</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57.706349600000003</c:v>
+                  <c:v>24.431335000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.613554100000002</c:v>
+                  <c:v>24.433516300000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.4600957</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.430827099999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.401625500000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.334432799999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Results!$J$2:$J$7</c:f>
+              <c:f>Results!$I$2:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>51999.8</c:v>
+                  <c:v>51998.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51998.9</c:v>
+                  <c:v>51845.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51845.9</c:v>
+                  <c:v>51969.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51968.800000000003</c:v>
+                  <c:v>51950.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51969.1</c:v>
+                  <c:v>51924.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51951.7</c:v>
+                  <c:v>51912.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51900.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51888.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51872.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51858.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1093,7 +1735,134 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A034-4073-8943-B915FA8021CC}"/>
+              <c16:uniqueId val="{00000001-C5F2-422E-A83D-0EFFB837E86F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>B (total) teorētiskais 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Results!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>24.352066300000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.290671199999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.375397499999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.3862953</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.431335000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.433516300000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.4600957</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.430827099999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.401625500000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.334432799999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Results!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>52011.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51858.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51981.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51963.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51937.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51925</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51912.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51900.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51885</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51871.199999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C5F2-422E-A83D-0EFFB837E86F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1105,11 +1874,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="659861112"/>
-        <c:axId val="659857152"/>
+        <c:axId val="1769291296"/>
+        <c:axId val="1769293696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="659861112"/>
+        <c:axId val="1769291296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1129,6 +1898,104 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="lv-LV" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>GPS E (°)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1166,12 +2033,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="659857152"/>
+        <c:crossAx val="1769293696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="659857152"/>
+        <c:axId val="1769293696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1191,6 +2058,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="lv-LV"/>
+                  <a:t>B</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="lv-LV" baseline="0"/>
+                  <a:t> (total) (nT)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1228,7 +2155,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="659861112"/>
+        <c:crossAx val="1769291296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1395,46 +2322,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2467,615 +3354,151 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="More information">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="More information"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A672052B-ABF5-72D2-6F7A-5087064793CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1219200" y="6667500"/>
+          <a:ext cx="142875" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="More information">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tooltip="More information"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1219200" y="6667500"/>
+          <a:ext cx="142875" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>595195</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>13803</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D4DFCB8-CDE1-ABA8-1948-9523185A4F52}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B79237E4-C258-03F3-5346-834C860F809E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C91812F9-3633-A85D-3204-7F56F8DE0FB7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3088,6 +3511,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>597891</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>13804</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>41413</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA6E1F47-05BF-6EA8-50A4-C64C855304D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3413,18 +3872,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="103" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" customWidth="1"/>
+    <col min="7" max="7" width="25.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3432,321 +3893,669 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>57.862904200000003</v>
+      </c>
+      <c r="B2">
+        <v>24.352066300000001</v>
+      </c>
+      <c r="C2">
+        <v>54814.980689999997</v>
+      </c>
+      <c r="D2">
+        <v>1912.7159610000001</v>
+      </c>
+      <c r="E2">
+        <v>-51221.598700000002</v>
+      </c>
+      <c r="F2">
+        <v>19426.050859999999</v>
+      </c>
+      <c r="G2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2">
+        <v>45</v>
+      </c>
+      <c r="I2">
+        <v>51998.9</v>
+      </c>
+      <c r="J2">
+        <v>52011.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>57.1404633</v>
+      </c>
+      <c r="B3">
+        <v>24.290671199999998</v>
+      </c>
+      <c r="C3">
+        <v>53311.06237</v>
+      </c>
+      <c r="D3">
+        <v>2267.2158509999999</v>
+      </c>
+      <c r="E3">
+        <v>-50693.80934</v>
+      </c>
+      <c r="F3">
+        <v>16342.1785</v>
+      </c>
+      <c r="G3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3">
+        <v>45</v>
+      </c>
+      <c r="I3">
+        <v>51845.9</v>
+      </c>
+      <c r="J3">
+        <v>51858.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>57.706349600000003</v>
+      </c>
+      <c r="B4">
+        <v>24.375397499999998</v>
+      </c>
+      <c r="C4">
+        <v>54739.182419999997</v>
+      </c>
+      <c r="D4">
+        <v>3257.1249240000002</v>
+      </c>
+      <c r="E4">
+        <v>-50654.208449999998</v>
+      </c>
+      <c r="F4">
+        <v>20491.959299999999</v>
+      </c>
+      <c r="G4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4">
+        <v>45</v>
+      </c>
+      <c r="I4">
+        <v>51969.1</v>
+      </c>
+      <c r="J4">
+        <v>51981.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>57.613046099999998</v>
+      </c>
+      <c r="B5">
+        <v>24.3862953</v>
+      </c>
+      <c r="C5">
+        <v>53959.366909999997</v>
+      </c>
+      <c r="D5">
+        <v>1340.893705</v>
+      </c>
+      <c r="E5">
+        <v>-50265.915050000003</v>
+      </c>
+      <c r="F5">
+        <v>19574.296040000001</v>
+      </c>
+      <c r="G5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5">
+        <v>45</v>
+      </c>
+      <c r="I5">
+        <v>51950.9</v>
+      </c>
+      <c r="J5">
+        <v>51963.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>57.465741399999999</v>
+      </c>
+      <c r="B6">
+        <v>24.431335000000001</v>
+      </c>
+      <c r="C6">
+        <v>54311.215179999999</v>
+      </c>
+      <c r="D6">
+        <v>515.50010529999997</v>
+      </c>
+      <c r="E6">
+        <v>-49760.041649999999</v>
+      </c>
+      <c r="F6">
+        <v>21757.31164</v>
+      </c>
+      <c r="G6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6">
+        <v>45</v>
+      </c>
+      <c r="I6">
+        <v>51924.800000000003</v>
+      </c>
+      <c r="J6">
+        <v>51937.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>57.404880900000002</v>
+      </c>
+      <c r="B7">
+        <v>24.433516300000001</v>
+      </c>
+      <c r="C7">
+        <v>53686.451399999998</v>
+      </c>
+      <c r="D7">
+        <v>526.42975349999995</v>
+      </c>
+      <c r="E7">
+        <v>-49762.2448</v>
+      </c>
+      <c r="F7">
+        <v>20141.423210000001</v>
+      </c>
+      <c r="G7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7">
+        <v>45</v>
+      </c>
+      <c r="I7">
+        <v>51912.5</v>
+      </c>
+      <c r="J7">
+        <v>51925</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>57.3344959</v>
+      </c>
+      <c r="B8">
+        <v>24.4600957</v>
+      </c>
+      <c r="C8">
+        <v>53675.088889999999</v>
+      </c>
+      <c r="D8">
+        <v>59.672033659999997</v>
+      </c>
+      <c r="E8">
+        <v>-49619.234069999999</v>
+      </c>
+      <c r="F8">
+        <v>20468.102419999999</v>
+      </c>
+      <c r="G8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8">
+        <v>45</v>
+      </c>
+      <c r="I8">
+        <v>51900.4</v>
+      </c>
+      <c r="J8">
+        <v>51912.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>57.287456599999999</v>
+      </c>
+      <c r="B9">
+        <v>24.430827099999998</v>
+      </c>
+      <c r="C9">
+        <v>53491.282509999997</v>
+      </c>
+      <c r="D9">
+        <v>627.98431949999997</v>
+      </c>
+      <c r="E9">
+        <v>-49371.342810000002</v>
+      </c>
+      <c r="F9">
+        <v>20576.526669999999</v>
+      </c>
+      <c r="G9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9">
+        <v>45</v>
+      </c>
+      <c r="I9">
+        <v>51888.2</v>
+      </c>
+      <c r="J9">
+        <v>51900.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>57.223489499999999</v>
+      </c>
+      <c r="B10">
+        <v>24.401625500000002</v>
+      </c>
+      <c r="C10">
+        <v>53488.626629999999</v>
+      </c>
+      <c r="D10">
+        <v>337.13395730000002</v>
+      </c>
+      <c r="E10">
+        <v>-48817.987880000001</v>
+      </c>
+      <c r="F10">
+        <v>21856.888579999999</v>
+      </c>
+      <c r="G10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10">
+        <v>45</v>
+      </c>
+      <c r="I10">
+        <v>51872.5</v>
+      </c>
+      <c r="J10">
+        <v>51885</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>57.184800899999999</v>
+      </c>
+      <c r="B11">
+        <v>24.334432799999998</v>
+      </c>
+      <c r="C11">
+        <v>52776.948049999999</v>
+      </c>
+      <c r="D11">
+        <v>196.82850920000001</v>
+      </c>
+      <c r="E11">
+        <v>-48813.877899999999</v>
+      </c>
+      <c r="F11">
+        <v>20064.2176</v>
+      </c>
+      <c r="G11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11">
+        <v>45</v>
+      </c>
+      <c r="I11">
+        <v>51858.7</v>
+      </c>
+      <c r="J11">
+        <v>51871.199999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="23">
+      <c r="A32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="C33" s="20"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="B34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="20"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>57.865429200000001</v>
-      </c>
-      <c r="B2">
-        <v>24.356859100000001</v>
-      </c>
-      <c r="C2">
-        <v>55236.369870000002</v>
-      </c>
-      <c r="D2">
-        <v>823.01121350000005</v>
-      </c>
-      <c r="E2">
-        <v>-51710.439030000001</v>
-      </c>
-      <c r="F2">
-        <v>19401.280999999999</v>
-      </c>
-      <c r="J2">
-        <v>51999.8</v>
-      </c>
+    <row r="35" spans="1:8" ht="20">
+      <c r="A35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>57.862904200000003</v>
-      </c>
-      <c r="B3">
-        <v>24.352066300000001</v>
-      </c>
-      <c r="C3">
-        <v>54814.980689999997</v>
-      </c>
-      <c r="D3">
-        <v>1912.7159610000001</v>
-      </c>
-      <c r="E3">
-        <v>-51221.598700000002</v>
-      </c>
-      <c r="F3">
-        <v>19426.050859999999</v>
-      </c>
-      <c r="J3">
-        <v>51998.9</v>
+    <row r="36" spans="1:8" ht="21">
+      <c r="A36" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>57.1404633</v>
-      </c>
-      <c r="B4">
-        <v>24.290671199999998</v>
-      </c>
-      <c r="C4">
-        <v>53311.06237</v>
-      </c>
-      <c r="D4">
-        <v>2267.2158509999999</v>
-      </c>
-      <c r="E4">
-        <v>-50693.80934</v>
-      </c>
-      <c r="F4">
-        <v>16342.1785</v>
-      </c>
-      <c r="J4">
-        <v>51845.9</v>
+    <row r="37" spans="1:8">
+      <c r="A37" s="23"/>
+      <c r="B37" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="25"/>
+      <c r="E37" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="27"/>
+      <c r="H37" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>57.705918099999998</v>
-      </c>
-      <c r="B5">
-        <v>24.3724414</v>
-      </c>
-      <c r="C5">
-        <v>53330.277260000003</v>
-      </c>
-      <c r="D5">
-        <v>3093.4845129999999</v>
-      </c>
-      <c r="E5">
-        <v>-49194.991280000002</v>
-      </c>
-      <c r="F5">
-        <v>20356.857779999998</v>
-      </c>
-      <c r="J5">
-        <v>51968.800000000003</v>
+    <row r="38" spans="1:8">
+      <c r="A38" s="11">
+        <v>43745</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>57.706349600000003</v>
-      </c>
-      <c r="B6">
-        <v>24.375397499999998</v>
-      </c>
-      <c r="C6">
-        <v>54739.182419999997</v>
-      </c>
-      <c r="D6">
-        <v>3257.1249240000002</v>
-      </c>
-      <c r="E6">
-        <v>-50654.208449999998</v>
-      </c>
-      <c r="F6">
-        <v>20491.959299999999</v>
-      </c>
-      <c r="J6">
-        <v>51969.1</v>
+    <row r="39" spans="1:8">
+      <c r="A39" s="11">
+        <v>44111</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>57.613554100000002</v>
-      </c>
-      <c r="B7">
-        <v>24.3928537</v>
-      </c>
-      <c r="C7">
-        <v>53447.678249999997</v>
-      </c>
-      <c r="D7">
-        <v>1649.79872</v>
-      </c>
-      <c r="E7">
-        <v>-47817.744460000002</v>
-      </c>
-      <c r="F7">
-        <v>23820.07116</v>
-      </c>
-      <c r="J7">
-        <v>51951.7</v>
+    <row r="40" spans="1:8">
+      <c r="A40" s="11">
+        <v>44476</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>57.613046099999998</v>
-      </c>
-      <c r="B8">
-        <v>24.3862953</v>
-      </c>
-      <c r="C8">
-        <v>54797.213340000002</v>
-      </c>
-      <c r="D8">
-        <v>1487.3482610000001</v>
-      </c>
-      <c r="E8">
-        <v>-51085.621610000002</v>
-      </c>
-      <c r="F8">
-        <v>19768.197919999999</v>
+    <row r="41" spans="1:8">
+      <c r="A41" s="11">
+        <v>44841</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>57.613046099999998</v>
-      </c>
-      <c r="B9">
-        <v>24.3862953</v>
-      </c>
-      <c r="C9">
-        <v>53959.366909999997</v>
-      </c>
-      <c r="D9">
-        <v>1340.893705</v>
-      </c>
-      <c r="E9">
-        <v>-50265.915050000003</v>
-      </c>
-      <c r="F9">
-        <v>19574.296040000001</v>
+    <row r="42" spans="1:8">
+      <c r="A42" s="11">
+        <v>45206</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>57.465741399999999</v>
-      </c>
-      <c r="B10">
-        <v>24.431335000000001</v>
-      </c>
-      <c r="C10">
-        <v>54311.215179999999</v>
-      </c>
-      <c r="D10">
-        <v>515.50010529999997</v>
-      </c>
-      <c r="E10">
-        <v>-49760.041649999999</v>
-      </c>
-      <c r="F10">
-        <v>21757.31164</v>
+    <row r="43" spans="1:8">
+      <c r="A43" s="11">
+        <v>45572</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>57.404880900000002</v>
-      </c>
-      <c r="B11">
-        <v>24.433516300000001</v>
-      </c>
-      <c r="C11">
-        <v>53686.451399999998</v>
-      </c>
-      <c r="D11">
-        <v>526.42975349999995</v>
-      </c>
-      <c r="E11">
-        <v>-49762.2448</v>
-      </c>
-      <c r="F11">
-        <v>20141.423210000001</v>
+    <row r="44" spans="1:8" ht="21">
+      <c r="A44" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>57.3344959</v>
-      </c>
-      <c r="B12">
-        <v>24.4600957</v>
-      </c>
-      <c r="C12">
-        <v>53675.088889999999</v>
-      </c>
-      <c r="D12">
-        <v>59.672033659999997</v>
-      </c>
-      <c r="E12">
-        <v>-49619.234069999999</v>
-      </c>
-      <c r="F12">
-        <v>20468.102419999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>57.287456599999999</v>
-      </c>
-      <c r="B13">
-        <v>24.430827099999998</v>
-      </c>
-      <c r="C13">
-        <v>53491.282509999997</v>
-      </c>
-      <c r="D13">
-        <v>627.98431949999997</v>
-      </c>
-      <c r="E13">
-        <v>-49371.342810000002</v>
-      </c>
-      <c r="F13">
-        <v>20576.526669999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>57.223489499999999</v>
-      </c>
-      <c r="B14">
-        <v>24.401625500000002</v>
-      </c>
-      <c r="C14">
-        <v>53488.626629999999</v>
-      </c>
-      <c r="D14">
-        <v>337.13395730000002</v>
-      </c>
-      <c r="E14">
-        <v>-48817.987880000001</v>
-      </c>
-      <c r="F14">
-        <v>21856.888579999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>57.184800899999999</v>
-      </c>
-      <c r="B15">
-        <v>24.334432799999998</v>
-      </c>
-      <c r="C15">
-        <v>52776.948049999999</v>
-      </c>
-      <c r="D15">
-        <v>196.82850920000001</v>
-      </c>
-      <c r="E15">
-        <v>-48813.877899999999</v>
-      </c>
-      <c r="F15">
-        <v>20064.2176</v>
+    <row r="45" spans="1:8" ht="21">
+      <c r="A45" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" s="16" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="G36:G37"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ZPD_Latvija_Arpus_Civilizacijas_Kopsavilkums_Excel.xlsx
+++ b/ZPD_Latvija_Arpus_Civilizacijas_Kopsavilkums_Excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maija Anna Ramāna\Documents\Maija_un_Linda_ZPD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D91BFC-7FCA-4AB8-923B-9DAC3B0CEAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABBD8B9-B093-4E91-A0A0-87537EE10398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="97">
   <si>
     <t>GPS N</t>
   </si>
@@ -306,6 +306,24 @@
   </si>
   <si>
     <t>Eksp. mērījumu veikšanas dat.</t>
+  </si>
+  <si>
+    <t>Bx STD</t>
+  </si>
+  <si>
+    <t>By STD</t>
+  </si>
+  <si>
+    <t>Bz STD</t>
+  </si>
+  <si>
+    <t>Bx error</t>
+  </si>
+  <si>
+    <t>By error</t>
+  </si>
+  <si>
+    <t>Bz error</t>
   </si>
 </sst>
 </file>
@@ -3482,16 +3500,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>595195</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>286942</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>86310</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>13803</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>165652</xdr:rowOff>
+      <xdr:colOff>315890</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>79341</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3519,15 +3537,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>597891</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>173</xdr:rowOff>
+      <xdr:colOff>240318</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>61825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>13804</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>41413</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>266571</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>10588</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3872,10 +3890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="103" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3885,7 +3903,7 @@
     <col min="7" max="7" width="25.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3916,8 +3934,26 @@
       <c r="J1" t="s">
         <v>82</v>
       </c>
+      <c r="L1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N1" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>57.862904200000003</v>
       </c>
@@ -3948,8 +3984,26 @@
       <c r="J2">
         <v>52011.1</v>
       </c>
+      <c r="L2">
+        <v>1.2303471472024561</v>
+      </c>
+      <c r="M2">
+        <v>0.96249760852452781</v>
+      </c>
+      <c r="N2">
+        <v>0.75302631850449531</v>
+      </c>
+      <c r="O2">
+        <v>143.73488091859826</v>
+      </c>
+      <c r="P2">
+        <v>112.44345098883198</v>
+      </c>
+      <c r="Q2">
+        <v>87.972039814063635</v>
+      </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>57.1404633</v>
       </c>
@@ -3980,8 +4034,26 @@
       <c r="J3">
         <v>51858.2</v>
       </c>
+      <c r="L3">
+        <v>0.63228473095822002</v>
+      </c>
+      <c r="M3">
+        <v>0.74957980295904392</v>
+      </c>
+      <c r="N3">
+        <v>0.80492609956858752</v>
+      </c>
+      <c r="O3">
+        <v>67.138397253790586</v>
+      </c>
+      <c r="P3">
+        <v>79.593234061202992</v>
+      </c>
+      <c r="Q3">
+        <v>85.470114312077172</v>
+      </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>57.706349600000003</v>
       </c>
@@ -4012,8 +4084,26 @@
       <c r="J4">
         <v>51981.4</v>
       </c>
+      <c r="L4">
+        <v>0.62693378268198097</v>
+      </c>
+      <c r="M4">
+        <v>0.27240676173106815</v>
+      </c>
+      <c r="N4">
+        <v>0.71563687811763221</v>
+      </c>
+      <c r="O4">
+        <v>75.900426553744467</v>
+      </c>
+      <c r="P4">
+        <v>32.979223616029522</v>
+      </c>
+      <c r="Q4">
+        <v>86.63936416754126</v>
+      </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>57.613046099999998</v>
       </c>
@@ -4044,8 +4134,26 @@
       <c r="J5">
         <v>51963.4</v>
       </c>
+      <c r="L5">
+        <v>1.1352250317262729</v>
+      </c>
+      <c r="M5">
+        <v>0.97615341563397662</v>
+      </c>
+      <c r="N5">
+        <v>0.90333535191682945</v>
+      </c>
+      <c r="O5">
+        <v>140.12098707882188</v>
+      </c>
+      <c r="P5">
+        <v>120.48675488682916</v>
+      </c>
+      <c r="Q5">
+        <v>111.49881092852904</v>
+      </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>57.465741399999999</v>
       </c>
@@ -4076,8 +4184,26 @@
       <c r="J6">
         <v>51937.3</v>
       </c>
+      <c r="L6">
+        <v>0.6156152455628866</v>
+      </c>
+      <c r="M6">
+        <v>1.3526776234906215</v>
+      </c>
+      <c r="N6">
+        <v>0.734797209996773</v>
+      </c>
+      <c r="O6">
+        <v>67.279733705786526</v>
+      </c>
+      <c r="P6">
+        <v>147.8322555430095</v>
+      </c>
+      <c r="Q6">
+        <v>80.304964785489034</v>
+      </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>57.404880900000002</v>
       </c>
@@ -4108,8 +4234,26 @@
       <c r="J7">
         <v>51925</v>
       </c>
+      <c r="L7">
+        <v>0.62261802504941355</v>
+      </c>
+      <c r="M7">
+        <v>0.33656647938121664</v>
+      </c>
+      <c r="N7">
+        <v>0.69658342722684652</v>
+      </c>
+      <c r="O7">
+        <v>67.993765333437523</v>
+      </c>
+      <c r="P7">
+        <v>36.755155323894584</v>
+      </c>
+      <c r="Q7">
+        <v>76.071247828497903</v>
+      </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>57.3344959</v>
       </c>
@@ -4140,8 +4284,26 @@
       <c r="J8">
         <v>51912.9</v>
       </c>
+      <c r="L8">
+        <v>0.6393485929415561</v>
+      </c>
+      <c r="M8">
+        <v>0.31898794729853674</v>
+      </c>
+      <c r="N8">
+        <v>0.703024193225951</v>
+      </c>
+      <c r="O8">
+        <v>66.933416103826417</v>
+      </c>
+      <c r="P8">
+        <v>33.394854144287038</v>
+      </c>
+      <c r="Q8">
+        <v>73.599615883648141</v>
+      </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>57.287456599999999</v>
       </c>
@@ -4172,8 +4334,26 @@
       <c r="J9">
         <v>51900.7</v>
       </c>
+      <c r="L9">
+        <v>0.63132744384288686</v>
+      </c>
+      <c r="M9">
+        <v>1.5444318399303869</v>
+      </c>
+      <c r="N9">
+        <v>0.91921464451443335</v>
+      </c>
+      <c r="O9">
+        <v>66.929642330013877</v>
+      </c>
+      <c r="P9">
+        <v>163.73162874153533</v>
+      </c>
+      <c r="Q9">
+        <v>97.449759204785209</v>
+      </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>57.223489499999999</v>
       </c>
@@ -4204,8 +4384,26 @@
       <c r="J10">
         <v>51885</v>
       </c>
+      <c r="L10">
+        <v>0.63764837653464124</v>
+      </c>
+      <c r="M10">
+        <v>1.7652044788642125</v>
+      </c>
+      <c r="N10">
+        <v>0.99849452898145585</v>
+      </c>
+      <c r="O10">
+        <v>68.525695007575791</v>
+      </c>
+      <c r="P10">
+        <v>189.69994780200676</v>
+      </c>
+      <c r="Q10">
+        <v>107.30448641861966</v>
+      </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>57.184800899999999</v>
       </c>
@@ -4235,6 +4433,24 @@
       </c>
       <c r="J11">
         <v>51871.199999999997</v>
+      </c>
+      <c r="L11">
+        <v>0.68623044829777413</v>
+      </c>
+      <c r="M11">
+        <v>0.78521469712324965</v>
+      </c>
+      <c r="N11">
+        <v>0.74684855950169626</v>
+      </c>
+      <c r="O11">
+        <v>69.583902808435894</v>
+      </c>
+      <c r="P11">
+        <v>79.620925162840592</v>
+      </c>
+      <c r="Q11">
+        <v>75.730591240736914</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="23">

--- a/ZPD_Latvija_Arpus_Civilizacijas_Kopsavilkums_Excel.xlsx
+++ b/ZPD_Latvija_Arpus_Civilizacijas_Kopsavilkums_Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maija Anna Ramāna\Documents\Maija_un_Linda_ZPD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABBD8B9-B093-4E91-A0A0-87537EE10398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD739803-90E1-4834-9109-311A25748E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="99">
   <si>
     <t>GPS N</t>
   </si>
@@ -324,6 +324,12 @@
   </si>
   <si>
     <t>Bz error</t>
+  </si>
+  <si>
+    <t>Propogated SEM</t>
+  </si>
+  <si>
+    <t>Propogated STD</t>
   </si>
 </sst>
 </file>
@@ -663,7 +669,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="lv-LV" baseline="0"/>
-              <a:t> (total) pret GPS N</a:t>
+              <a:t> (total) pret GPS N (Propogated SEM error bars B (total))</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -746,6 +752,123 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Results!$S$2:$S$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.93914006025806729</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.75475921243769573</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.3697392207174644</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.9669915910817275</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.273818027393083</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.40700841414346584</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.39853184877337111</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.468697816393352</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.6619340301312502</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.77978507046489676</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Results!$S$2:$S$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.93914006025806729</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.75475921243769573</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.3697392207174644</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.9669915910817275</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.273818027393083</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.40700841414346584</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.39853184877337111</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.468697816393352</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.6619340301312502</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.77978507046489676</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Results!$A$2:$A$11</c:f>
@@ -919,34 +1042,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>51998.9</c:v>
+                  <c:v>51999.199999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51845.9</c:v>
+                  <c:v>51846.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>51969.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51950.9</c:v>
+                  <c:v>51951.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51924.800000000003</c:v>
+                  <c:v>51925.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51912.5</c:v>
+                  <c:v>51913</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51900.4</c:v>
+                  <c:v>51901.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51888.2</c:v>
+                  <c:v>51888.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>51872.5</c:v>
+                  <c:v>51873.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51858.7</c:v>
+                  <c:v>51859.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -986,6 +1109,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Results!$A$2:$A$11</c:f>
@@ -1032,34 +1169,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>52011.1</c:v>
+                  <c:v>51998.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51858.2</c:v>
+                  <c:v>51845.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51981.4</c:v>
+                  <c:v>51969</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51963.4</c:v>
+                  <c:v>51951.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51937.3</c:v>
+                  <c:v>51924.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>51925</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51912.9</c:v>
+                  <c:v>51900.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51900.7</c:v>
+                  <c:v>51888.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>51885</c:v>
+                  <c:v>51872.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51871.199999999997</c:v>
+                  <c:v>51858.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1448,7 +1585,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="lv-LV" baseline="0"/>
-              <a:t> (total) pret GPS E</a:t>
+              <a:t> (total) pret GPS E (Propogated SEM error bars for B (total))</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1545,6 +1682,123 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Results!$S$2:$S$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.93914006025806729</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.75475921243769573</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.3697392207174644</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.9669915910817275</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.273818027393083</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.40700841414346584</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.39853184877337111</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.468697816393352</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.6619340301312502</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.77978507046489676</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Results!$S$2:$S$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>0.93914006025806729</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.75475921243769573</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.3697392207174644</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.9669915910817275</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.273818027393083</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.40700841414346584</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.39853184877337111</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1.468697816393352</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.6619340301312502</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.77978507046489676</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:xVal>
             <c:numRef>
               <c:f>Results!$B$2:$B$11</c:f>
@@ -1718,34 +1972,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>51998.9</c:v>
+                  <c:v>51999.199999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51845.9</c:v>
+                  <c:v>51846.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>51969.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51950.9</c:v>
+                  <c:v>51951.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51924.800000000003</c:v>
+                  <c:v>51925.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51912.5</c:v>
+                  <c:v>51913</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51900.4</c:v>
+                  <c:v>51901.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51888.2</c:v>
+                  <c:v>51888.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>51872.5</c:v>
+                  <c:v>51873.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51858.7</c:v>
+                  <c:v>51859.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1845,34 +2099,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>52011.1</c:v>
+                  <c:v>51998.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51858.2</c:v>
+                  <c:v>51845.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51981.4</c:v>
+                  <c:v>51969</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51963.4</c:v>
+                  <c:v>51951.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51937.3</c:v>
+                  <c:v>51924.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>51925</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51912.9</c:v>
+                  <c:v>51900.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51900.7</c:v>
+                  <c:v>51888.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>51885</c:v>
+                  <c:v>51872.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51871.199999999997</c:v>
+                  <c:v>51858.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2260,6 +2514,1943 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="lv-LV" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>B (total) pret GPS N (Propogated STD error bars for B (total))</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>B (total) eksperimentālais</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Results!$T$2:$T$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>109.71471347254329</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>80.143203456463851</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>44.762884600111057</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>119.35590957966394</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>139.21379999982838</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>44.447853236836572</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>41.722306671305496</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>155.70275061025606</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>178.60185748516264</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>79.070359948752355</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Results!$T$2:$T$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>109.71471347254329</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>80.143203456463851</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>44.762884600111057</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>119.35590957966394</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>139.21379999982838</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>44.447853236836572</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>41.722306671305496</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>155.70275061025606</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>178.60185748516264</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>79.070359948752355</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Results!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>57.862904200000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.1404633</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.706349600000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.613046099999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57.465741399999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.404880900000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57.3344959</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57.287456599999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57.223489499999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57.184800899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Results!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>54814.980689999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53311.06237</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54739.182419999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53959.366909999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54311.215179999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53686.451399999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53675.088889999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53491.282509999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53488.626629999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52776.948049999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-995C-4F43-AE4F-50794155882A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>B (total) teorētiskais 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Results!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>57.862904200000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.1404633</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.706349600000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.613046099999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57.465741399999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.404880900000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57.3344959</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57.287456599999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57.223489499999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57.184800899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Results!$I$2:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>51999.199999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51846.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51969.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51951.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51925.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51913</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51901.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51888.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51873.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51859.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-995C-4F43-AE4F-50794155882A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>B (total) teorētiskais 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Results!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>57.862904200000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.1404633</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.706349600000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.613046099999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57.465741399999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.404880900000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57.3344959</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57.287456599999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57.223489499999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57.184800899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Results!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>51998.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51845.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51951.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51924.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51925</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51900.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51888.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51872.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51858.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-995C-4F43-AE4F-50794155882A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="112128304"/>
+        <c:axId val="112123984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="112128304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="lv-LV" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>GPS N (°)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="112123984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="112123984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="lv-LV"/>
+                  <a:t>B</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="lv-LV" baseline="0"/>
+                  <a:t> (Total) (nT)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="112128304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="lv-LV" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>B (total) pret GPS E (Propogated STD error bars for B (total))</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>B (total) eksperimentālais</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Results!$T$2:$T$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>109.71471347254329</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>80.143203456463851</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>44.762884600111057</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>119.35590957966394</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>139.21379999982838</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>44.447853236836572</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>41.722306671305496</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>155.70275061025606</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>178.60185748516264</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>79.070359948752355</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Results!$T$2:$T$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>109.71471347254329</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>80.143203456463851</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>44.762884600111057</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>119.35590957966394</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>139.21379999982838</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>44.447853236836572</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>41.722306671305496</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>155.70275061025606</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>178.60185748516264</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>79.070359948752355</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Results!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>24.352066300000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.290671199999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.375397499999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.3862953</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.431335000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.433516300000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.4600957</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.430827099999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.401625500000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.334432799999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Results!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>54814.980689999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53311.06237</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54739.182419999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53959.366909999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54311.215179999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53686.451399999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53675.088889999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53491.282509999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53488.626629999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52776.948049999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E137-4BC9-B018-361820D8E337}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>B (total) teorētiskais 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Results!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>24.352066300000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.290671199999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.375397499999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.3862953</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.431335000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.433516300000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.4600957</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.430827099999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.401625500000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.334432799999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Results!$I$2:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>51999.199999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51846.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51969.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51951.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51925.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51913</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51901.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51888.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51873.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51859.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E137-4BC9-B018-361820D8E337}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>B (total) teorētiskais 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Results!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>24.352066300000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.290671199999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.375397499999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.3862953</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.431335000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.433516300000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.4600957</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.430827099999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.401625500000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.334432799999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Results!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>51998.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51845.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51951.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51924.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51925</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51900.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51888.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51872.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51858.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E137-4BC9-B018-361820D8E337}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="297869472"/>
+        <c:axId val="297871392"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="297869472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="lv-LV"/>
+                  <a:t>GPS E </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="lv-LV" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>(°)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297871392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="297871392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="lv-LV" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>B (total) (nT)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="297869472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2340,6 +4531,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2857,6 +5128,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3500,16 +6803,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>286942</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>86310</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>141796</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>315890</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>79341</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1150987</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>17691</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3536,16 +6839,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>240318</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>61825</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>490856</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>108334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>266571</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>10588</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>578733</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>8038</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3565,6 +6868,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1160154</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>108729</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>467894</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>289648</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5637E8A8-1530-C40E-1DB1-C799688813FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>600806</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123091</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>498231</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>166076</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{788A1EA9-6FCC-2EDB-2E7B-8EFDC425E26B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3890,10 +7265,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:T45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="K5" zoomScale="90" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3901,9 +7276,11 @@
     <col min="2" max="2" width="11.81640625" customWidth="1"/>
     <col min="3" max="3" width="15.81640625" customWidth="1"/>
     <col min="7" max="7" width="25.26953125" customWidth="1"/>
+    <col min="19" max="19" width="14.453125" customWidth="1"/>
+    <col min="20" max="20" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3952,8 +7329,14 @@
       <c r="Q1" t="s">
         <v>93</v>
       </c>
+      <c r="S1" t="s">
+        <v>97</v>
+      </c>
+      <c r="T1" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:20">
       <c r="A2">
         <v>57.862904200000003</v>
       </c>
@@ -3976,13 +7359,13 @@
         <v>84</v>
       </c>
       <c r="H2">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I2">
-        <v>51998.9</v>
+        <v>51999.199999999997</v>
       </c>
       <c r="J2">
-        <v>52011.1</v>
+        <v>51998.8</v>
       </c>
       <c r="L2">
         <v>1.2303471472024561</v>
@@ -4002,8 +7385,16 @@
       <c r="Q2">
         <v>87.972039814063635</v>
       </c>
+      <c r="S2">
+        <f>SQRT((D2/C2*L2)^2 + (E2/C2*M2)^2 + (F2/C2*N2)^2)</f>
+        <v>0.93914006025806729</v>
+      </c>
+      <c r="T2">
+        <f>SQRT((D2/C2*O2)^2 + (E2/C2*P2)^2 + (F2/C2*Q2)^2)</f>
+        <v>109.71471347254329</v>
+      </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:20">
       <c r="A3">
         <v>57.1404633</v>
       </c>
@@ -4026,13 +7417,13 @@
         <v>84</v>
       </c>
       <c r="H3">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I3">
-        <v>51845.9</v>
+        <v>51846.3</v>
       </c>
       <c r="J3">
-        <v>51858.2</v>
+        <v>51845.8</v>
       </c>
       <c r="L3">
         <v>0.63228473095822002</v>
@@ -4052,8 +7443,16 @@
       <c r="Q3">
         <v>85.470114312077172</v>
       </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S11" si="0">SQRT((D3/C3*L3)^2 + (E3/C3*M3)^2 + (F3/C3*N3)^2)</f>
+        <v>0.75475921243769573</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T11" si="1">SQRT((D3/C3*O3)^2 + (E3/C3*P3)^2 + (F3/C3*Q3)^2)</f>
+        <v>80.143203456463851</v>
+      </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:20">
       <c r="A4">
         <v>57.706349600000003</v>
       </c>
@@ -4076,13 +7475,13 @@
         <v>84</v>
       </c>
       <c r="H4">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I4">
         <v>51969.1</v>
       </c>
       <c r="J4">
-        <v>51981.4</v>
+        <v>51969</v>
       </c>
       <c r="L4">
         <v>0.62693378268198097</v>
@@ -4102,8 +7501,16 @@
       <c r="Q4">
         <v>86.63936416754126</v>
       </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>0.3697392207174644</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="1"/>
+        <v>44.762884600111057</v>
+      </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>57.613046099999998</v>
       </c>
@@ -4126,13 +7533,13 @@
         <v>84</v>
       </c>
       <c r="H5">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>51950.9</v>
+        <v>51951.8</v>
       </c>
       <c r="J5">
-        <v>51963.4</v>
+        <v>51951.3</v>
       </c>
       <c r="L5">
         <v>1.1352250317262729</v>
@@ -4152,8 +7559,16 @@
       <c r="Q5">
         <v>111.49881092852904</v>
       </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>0.9669915910817275</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="1"/>
+        <v>119.35590957966394</v>
+      </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>57.465741399999999</v>
       </c>
@@ -4176,13 +7591,13 @@
         <v>84</v>
       </c>
       <c r="H6">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I6">
-        <v>51924.800000000003</v>
+        <v>51925.3</v>
       </c>
       <c r="J6">
-        <v>51937.3</v>
+        <v>51924.9</v>
       </c>
       <c r="L6">
         <v>0.6156152455628866</v>
@@ -4202,8 +7617,16 @@
       <c r="Q6">
         <v>80.304964785489034</v>
       </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>1.273818027393083</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="1"/>
+        <v>139.21379999982838</v>
+      </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:20">
       <c r="A7">
         <v>57.404880900000002</v>
       </c>
@@ -4226,10 +7649,10 @@
         <v>84</v>
       </c>
       <c r="H7">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I7">
-        <v>51912.5</v>
+        <v>51913</v>
       </c>
       <c r="J7">
         <v>51925</v>
@@ -4252,8 +7675,16 @@
       <c r="Q7">
         <v>76.071247828497903</v>
       </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>0.40700841414346584</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="1"/>
+        <v>44.447853236836572</v>
+      </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:20">
       <c r="A8">
         <v>57.3344959</v>
       </c>
@@ -4276,13 +7707,13 @@
         <v>85</v>
       </c>
       <c r="H8">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I8">
-        <v>51900.4</v>
+        <v>51901.1</v>
       </c>
       <c r="J8">
-        <v>51912.9</v>
+        <v>51900.7</v>
       </c>
       <c r="L8">
         <v>0.6393485929415561</v>
@@ -4302,8 +7733,16 @@
       <c r="Q8">
         <v>73.599615883648141</v>
       </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>0.39853184877337111</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="1"/>
+        <v>41.722306671305496</v>
+      </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:20">
       <c r="A9">
         <v>57.287456599999999</v>
       </c>
@@ -4326,13 +7765,13 @@
         <v>85</v>
       </c>
       <c r="H9">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I9">
-        <v>51888.2</v>
+        <v>51888.9</v>
       </c>
       <c r="J9">
-        <v>51900.7</v>
+        <v>51888.5</v>
       </c>
       <c r="L9">
         <v>0.63132744384288686</v>
@@ -4352,8 +7791,16 @@
       <c r="Q9">
         <v>97.449759204785209</v>
       </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>1.468697816393352</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="1"/>
+        <v>155.70275061025606</v>
+      </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:20">
       <c r="A10">
         <v>57.223489499999999</v>
       </c>
@@ -4376,13 +7823,13 @@
         <v>85</v>
       </c>
       <c r="H10">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I10">
-        <v>51872.5</v>
+        <v>51873.2</v>
       </c>
       <c r="J10">
-        <v>51885</v>
+        <v>51872.800000000003</v>
       </c>
       <c r="L10">
         <v>0.63764837653464124</v>
@@ -4402,8 +7849,16 @@
       <c r="Q10">
         <v>107.30448641861966</v>
       </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>1.6619340301312502</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="1"/>
+        <v>178.60185748516264</v>
+      </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:20">
       <c r="A11">
         <v>57.184800899999999</v>
       </c>
@@ -4426,13 +7881,13 @@
         <v>85</v>
       </c>
       <c r="H11">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I11">
-        <v>51858.7</v>
+        <v>51859.4</v>
       </c>
       <c r="J11">
-        <v>51871.199999999997</v>
+        <v>51858.9</v>
       </c>
       <c r="L11">
         <v>0.68623044829777413</v>
@@ -4451,6 +7906,14 @@
       </c>
       <c r="Q11">
         <v>75.730591240736914</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>0.77978507046489676</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="1"/>
+        <v>79.070359948752355</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="23">

--- a/ZPD_Latvija_Arpus_Civilizacijas_Kopsavilkums_Excel.xlsx
+++ b/ZPD_Latvija_Arpus_Civilizacijas_Kopsavilkums_Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maija Anna Ramāna\Documents\Maija_un_Linda_ZPD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1775CA-2AD8-4268-A0E7-BA46AD3B82DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAE6965-1213-48F4-9875-172C90BC134C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>GPS N</t>
   </si>
@@ -103,12 +103,36 @@
   <si>
     <t>Bz teor 2</t>
   </si>
+  <si>
+    <t>B (total) STD s</t>
+  </si>
+  <si>
+    <t>Stjūdena koeficients t (99.9%)</t>
+  </si>
+  <si>
+    <t>Gadījuma kļūda  δ</t>
+  </si>
+  <si>
+    <t>Sistemātiskā kļūda θ</t>
+  </si>
+  <si>
+    <t>Absolūtā kļūda ΔB</t>
+  </si>
+  <si>
+    <t>Relatīvā kļūda r</t>
+  </si>
+  <si>
+    <t>Relatīvā kļūda r (%)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000000%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -117,6 +141,10 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -136,15 +164,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1793,6 +1824,1834 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="102165423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="lv-LV"/>
+              <a:t>B (total) pret GPS N (absolūtās</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="lv-LV" baseline="0"/>
+              <a:t> kļūdas error bars)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>B (total) eksperimentālais</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Results!$AD$2:$AD$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>3.4397849636867375</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.7022234371695282</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.4106985885404237</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.8970350828943716</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.5403967389793261</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.4628244157367272</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.3958611142762367</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>5.5144003396811456</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>6.2926452179002643</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2.6987432246203573</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Results!$AD$2:$AD$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>3.4397849636867375</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.7022234371695282</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.4106985885404237</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.8970350828943716</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.5403967389793261</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.4628244157367272</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.3958611142762367</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>5.5144003396811456</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>6.2926452179002643</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2.6987432246203573</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Results!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>57.862904200000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.1404633</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.706349600000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.613046099999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57.465741399999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.404880900000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57.3344959</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57.287456599999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57.223489499999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57.184800899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Results!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>54814.980689999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53311.06237</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54739.182419999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53959.366909999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54311.215179999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53686.451399999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53675.088889999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53491.282509999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53488.626629999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52776.948049999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-492F-4D5C-89D5-18A8C2E0750D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>B (total) teorētiskais 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Results!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>57.862904200000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.1404633</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.706349600000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.613046099999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57.465741399999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.404880900000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57.3344959</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57.287456599999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57.223489499999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57.184800899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Results!$I$2:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>51999.199999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51846.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51969.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51951.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51925.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51913</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51901.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51888.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51873.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51859.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-492F-4D5C-89D5-18A8C2E0750D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>B (total) teorētiskais 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Results!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>57.862904200000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.1404633</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.706349600000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.613046099999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57.465741399999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.404880900000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57.3344959</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57.287456599999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57.223489499999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57.184800899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Results!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>51998.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51845.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51951.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51924.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51925</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51900.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51888.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51872.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51858.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-492F-4D5C-89D5-18A8C2E0750D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="127575584"/>
+        <c:axId val="127591424"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="127575584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="lv-LV"/>
+                  <a:t>GPS</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="lv-LV" baseline="0"/>
+                  <a:t> N (°)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="127591424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="127591424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="lv-LV"/>
+                  <a:t>B</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="lv-LV" baseline="0"/>
+                  <a:t> (total) (nT)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="127575584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="lv-LV"/>
+              <a:t>B (total)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="lv-LV" baseline="0"/>
+              <a:t> pret GPS E (absolūtās kļūdas error bars)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>B (total) eksperimentālais</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Results!$AD$2:$AD$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>3.4397849636867375</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.7022234371695282</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.4106985885404237</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.8970350828943716</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.5403967389793261</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.4628244157367272</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.3958611142762367</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>5.5144003396811456</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>6.2926452179002643</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2.6987432246203573</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Results!$AD$2:$AD$11</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="10"/>
+                  <c:pt idx="0">
+                    <c:v>3.4397849636867375</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.7022234371695282</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.4106985885404237</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.8970350828943716</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.5403967389793261</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.4628244157367272</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1.3958611142762367</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>5.5144003396811456</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>6.2926452179002643</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2.6987432246203573</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Results!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>24.352066300000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.290671199999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.375397499999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.3862953</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.431335000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.433516300000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.4600957</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.430827099999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.401625500000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.334432799999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Results!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>54814.980689999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53311.06237</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54739.182419999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53959.366909999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54311.215179999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53686.451399999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53675.088889999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53491.282509999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53488.626629999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52776.948049999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8D01-4E1D-BA8C-159039682ECB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>B (total) teorētiskais 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Results!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>24.352066300000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.290671199999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.375397499999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.3862953</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.431335000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.433516300000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.4600957</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.430827099999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.401625500000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.334432799999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Results!$I$2:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>51999.199999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51846.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51969.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51951.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51925.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51913</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51901.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51888.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51873.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51859.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8D01-4E1D-BA8C-159039682ECB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>B (total) teorētiskais 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Results!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>24.352066300000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.290671199999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.375397499999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.3862953</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.431335000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.433516300000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.4600957</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.430827099999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.401625500000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.334432799999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Results!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>51998.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51845.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51951.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51924.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51925</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51900.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51888.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51872.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51858.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8D01-4E1D-BA8C-159039682ECB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1861598224"/>
+        <c:axId val="208339152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1861598224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="lv-LV"/>
+                  <a:t>GPS E (°)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="208339152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="208339152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="lv-LV"/>
+                  <a:t>B</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="lv-LV" baseline="0"/>
+                  <a:t> (total) (nT)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1861598224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8908,6 +10767,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -10260,6 +12199,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -14394,14 +17365,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152936</xdr:rowOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>13022</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1150987</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>129094</xdr:rowOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>172146</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14429,15 +17400,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>568085</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>151239</xdr:rowOff>
+      <xdr:colOff>589610</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>562</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>60066</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>111555</xdr:rowOff>
+      <xdr:colOff>81591</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>143844</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14466,14 +17437,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1160155</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>153290</xdr:rowOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>2612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>574932</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>120136</xdr:rowOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>152424</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14501,15 +17472,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>43036</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:colOff>107613</xdr:colOff>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>157416</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>197365</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>94392</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>336719</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>113394</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14539,13 +17510,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>168084</xdr:rowOff>
+      <xdr:rowOff>168085</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1190625</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>145521</xdr:rowOff>
+      <xdr:rowOff>145522</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14750,6 +17721,78 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>178102</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>326080</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>120135</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9189FD4F-0269-50F4-6654-CBB99492CB7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>334497</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>163596</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>68648</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>137297</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F5E385D-0857-C66D-4856-9D06C22D7107}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15070,10 +18113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:AF11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="109" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AD6" sqref="AD6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="67" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15083,9 +18126,16 @@
     <col min="7" max="7" width="25.26953125" customWidth="1"/>
     <col min="19" max="19" width="14.453125" customWidth="1"/>
     <col min="20" max="20" width="15" customWidth="1"/>
+    <col min="26" max="26" width="12.1796875" customWidth="1"/>
+    <col min="27" max="27" width="25" customWidth="1"/>
+    <col min="28" max="28" width="16.36328125" customWidth="1"/>
+    <col min="29" max="29" width="17.7265625" customWidth="1"/>
+    <col min="30" max="30" width="16.54296875" customWidth="1"/>
+    <col min="31" max="31" width="13.90625" customWidth="1"/>
+    <col min="32" max="32" width="16.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15149,8 +18199,29 @@
       <c r="X1" t="s">
         <v>22</v>
       </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>57.862904200000003</v>
       </c>
@@ -15216,8 +18287,32 @@
       <c r="X2">
         <v>49531.5</v>
       </c>
+      <c r="Z2">
+        <v>122.10625688947641</v>
+      </c>
+      <c r="AA2">
+        <v>3.2909999999999999</v>
+      </c>
+      <c r="AB2">
+        <v>3.4397849636867375</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <f>SQRT(AB2^2+AC2^2)</f>
+        <v>3.4397849636867375</v>
+      </c>
+      <c r="AE2">
+        <f>AD2/C2</f>
+        <v>6.2752643901127267E-5</v>
+      </c>
+      <c r="AF2" s="2">
+        <f>AE2</f>
+        <v>6.2752643901127267E-5</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>57.1404633</v>
       </c>
@@ -15283,8 +18378,32 @@
       <c r="X3">
         <v>49260.5</v>
       </c>
+      <c r="Z3">
+        <v>87.186982943094506</v>
+      </c>
+      <c r="AA3">
+        <v>3.2909999999999999</v>
+      </c>
+      <c r="AB3">
+        <v>2.7022234371695282</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" ref="AD3:AD11" si="2">SQRT(AB3^2+AC3^2)</f>
+        <v>2.7022234371695282</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" ref="AE3:AE10" si="3">AD3/C3</f>
+        <v>5.0687855710228049E-5</v>
+      </c>
+      <c r="AF3" s="2">
+        <f t="shared" ref="AF3:AF11" si="4">AE3</f>
+        <v>5.0687855710228049E-5</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>57.706349600000003</v>
       </c>
@@ -15350,8 +18469,32 @@
       <c r="X4">
         <v>49477</v>
       </c>
+      <c r="Z4">
+        <v>51.895403547186497</v>
+      </c>
+      <c r="AA4">
+        <v>3.2909999999999999</v>
+      </c>
+      <c r="AB4">
+        <v>1.4106985885404237</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="2"/>
+        <v>1.4106985885404237</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" si="3"/>
+        <v>2.5771276189631181E-5</v>
+      </c>
+      <c r="AF4" s="2">
+        <f t="shared" si="4"/>
+        <v>2.5771276189631181E-5</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>57.613046099999998</v>
       </c>
@@ -15417,8 +18560,32 @@
       <c r="X5">
         <v>49444</v>
       </c>
+      <c r="Z5">
+        <v>108.65434585196699</v>
+      </c>
+      <c r="AA5">
+        <v>3.2909999999999999</v>
+      </c>
+      <c r="AB5">
+        <v>2.8970350828943716</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="2"/>
+        <v>2.8970350828943716</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="3"/>
+        <v>5.368919705315297E-5</v>
+      </c>
+      <c r="AF5" s="2">
+        <f t="shared" si="4"/>
+        <v>5.368919705315297E-5</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>57.465741399999999</v>
       </c>
@@ -15484,8 +18651,32 @@
       <c r="X6">
         <v>49394.5</v>
       </c>
+      <c r="Z6">
+        <v>150.77898593860115</v>
+      </c>
+      <c r="AA6">
+        <v>3.2909999999999999</v>
+      </c>
+      <c r="AB6">
+        <v>4.5403967389793261</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="2"/>
+        <v>4.5403967389793261</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="3"/>
+        <v>8.3599616100125829E-5</v>
+      </c>
+      <c r="AF6" s="2">
+        <f t="shared" si="4"/>
+        <v>8.3599616100125829E-5</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>57.404880900000002</v>
       </c>
@@ -15551,8 +18742,32 @@
       <c r="X7">
         <v>49372.3</v>
       </c>
+      <c r="Z7">
+        <v>48.541335491270068</v>
+      </c>
+      <c r="AA7">
+        <v>3.2909999999999999</v>
+      </c>
+      <c r="AB7">
+        <v>1.4628244157367272</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="2"/>
+        <v>1.4628244157367272</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="3"/>
+        <v>2.7247552736121561E-5</v>
+      </c>
+      <c r="AF7" s="2">
+        <f t="shared" si="4"/>
+        <v>2.7247552736121561E-5</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>57.3344959</v>
       </c>
@@ -15618,8 +18833,32 @@
       <c r="X8">
         <v>49349</v>
       </c>
+      <c r="Z8">
+        <v>44.403745382398505</v>
+      </c>
+      <c r="AA8">
+        <v>3.2909999999999999</v>
+      </c>
+      <c r="AB8">
+        <v>1.3958611142762367</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="2"/>
+        <v>1.3958611142762367</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="3"/>
+        <v>2.6005753192824136E-5</v>
+      </c>
+      <c r="AF8" s="2">
+        <f t="shared" si="4"/>
+        <v>2.6005753192824136E-5</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>57.287456599999999</v>
       </c>
@@ -15685,8 +18924,32 @@
       <c r="X9">
         <v>49328.7</v>
       </c>
+      <c r="Z9">
+        <v>177.63733356585269</v>
+      </c>
+      <c r="AA9">
+        <v>3.2909999999999999</v>
+      </c>
+      <c r="AB9">
+        <v>5.5144003396811456</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="2"/>
+        <v>5.5144003396811456</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="3"/>
+        <v>1.0308970136676474E-4</v>
+      </c>
+      <c r="AF9" s="2">
+        <f t="shared" si="4"/>
+        <v>1.0308970136676474E-4</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>57.223489499999999</v>
       </c>
@@ -15752,8 +19015,32 @@
       <c r="X10">
         <v>49302.2</v>
       </c>
+      <c r="Z10">
+        <v>205.48378419406086</v>
+      </c>
+      <c r="AA10">
+        <v>3.2909999999999999</v>
+      </c>
+      <c r="AB10">
+        <v>6.2926452179002643</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="2"/>
+        <v>6.2926452179002643</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="3"/>
+        <v>1.1764454640850561E-4</v>
+      </c>
+      <c r="AF10" s="2">
+        <f t="shared" si="4"/>
+        <v>1.1764454640850561E-4</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>57.184800899999999</v>
       </c>
@@ -15818,6 +19105,30 @@
       </c>
       <c r="X11">
         <v>49281.3</v>
+      </c>
+      <c r="Z11">
+        <v>83.15195845411138</v>
+      </c>
+      <c r="AA11">
+        <v>3.2909999999999999</v>
+      </c>
+      <c r="AB11">
+        <v>2.6987432246203573</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="2"/>
+        <v>2.6987432246203573</v>
+      </c>
+      <c r="AE11">
+        <f>AD11/C11</f>
+        <v>5.1134886050319035E-5</v>
+      </c>
+      <c r="AF11" s="2">
+        <f t="shared" si="4"/>
+        <v>5.1134886050319035E-5</v>
       </c>
     </row>
   </sheetData>
